--- a/medicine/Hématologie/Couche_leuco-plaquettaire/Couche_leuco-plaquettaire.xlsx
+++ b/medicine/Hématologie/Couche_leuco-plaquettaire/Couche_leuco-plaquettaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La couche leuco-plaquettaire[1] ou couche leucocytaire (buffy coat en anglais) est la fraction d'un échantillon de sang non coagulé après centrifugation qui contient la plupart des globules blancs et des plaquettes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couche leuco-plaquettaire ou couche leucocytaire (buffy coat en anglais) est la fraction d'un échantillon de sang non coagulé après centrifugation qui contient la plupart des globules blancs et des plaquettes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après centrifugation du sang, trois couches apparaissent dans l'éprouvette.
 Au fond se trouvent les érythrocytes ou globules rouges, en surface, se trouve le plasma. Entre les deux se trouve une couche jaunâtre qui contient les leucocytes ou globules blancs et les plaquettes. C'est la couche leuco-plaquettaire.
@@ -546,7 +560,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quantitative buffy coat (QBC) est un test pour diagnostiquer la malaria (ou paludisme) et d'autres parasites sanguins.
 </t>
